--- a/portal_blumenau/Parametros_BluBot.xlsx
+++ b/portal_blumenau/Parametros_BluBot.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Matrícula</t>
   </si>
@@ -49,113 +49,83 @@
     <t>Ano final</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>Caminho para pasta do cliente</t>
   </si>
   <si>
-    <t>4/1/718311</t>
-  </si>
-  <si>
-    <t>212626</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1/1/98280</t>
-  </si>
-  <si>
-    <t>4206</t>
-  </si>
-  <si>
-    <t>1/1/209988</t>
-  </si>
-  <si>
-    <t>7353</t>
-  </si>
-  <si>
-    <t>1/1/223930</t>
-  </si>
-  <si>
-    <t>223930</t>
-  </si>
-  <si>
-    <t>1/1/228678</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>1/1/229440</t>
-  </si>
-  <si>
-    <t>9440</t>
-  </si>
-  <si>
-    <t>1/1/223735</t>
-  </si>
-  <si>
-    <t>3735</t>
-  </si>
-  <si>
-    <t>1/1/182990</t>
-  </si>
-  <si>
-    <t>895012</t>
-  </si>
-  <si>
-    <t>1/1/199710</t>
-  </si>
-  <si>
-    <t>6865</t>
-  </si>
-  <si>
-    <t>1/1/173266</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>4/1/718018</t>
-  </si>
-  <si>
-    <t>03031960</t>
-  </si>
-  <si>
-    <t>1/1/99236</t>
-  </si>
-  <si>
-    <t>1/1/142905</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>1/1/120871</t>
-  </si>
-  <si>
-    <t>mariana</t>
-  </si>
-  <si>
-    <t>1/1/185000</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>GILMAR BARG</t>
+  </si>
+  <si>
+    <t>106410</t>
+  </si>
+  <si>
+    <t>1/1/106410</t>
+  </si>
+  <si>
+    <t>ruthglau</t>
+  </si>
+  <si>
+    <t>522.571.699-72</t>
+  </si>
+  <si>
+    <t>ANDRÉA REGINA FRAGA PEREIRA HUBERT</t>
+  </si>
+  <si>
+    <t>174599</t>
+  </si>
+  <si>
+    <t>1/1/174599</t>
+  </si>
+  <si>
+    <t>4599</t>
+  </si>
+  <si>
+    <t>761.292.099-91</t>
+  </si>
+  <si>
+    <t>ANA MERY MARQUES KOERICH</t>
+  </si>
+  <si>
+    <t>106437</t>
+  </si>
+  <si>
+    <t>1/1/106437</t>
+  </si>
+  <si>
+    <t>ana123</t>
+  </si>
+  <si>
+    <t>550.529.089-20</t>
+  </si>
+  <si>
+    <t>ANA SILMARA CAMPIGOTTO</t>
+  </si>
+  <si>
+    <t>228693</t>
+  </si>
+  <si>
+    <t>1/1/228693</t>
+  </si>
+  <si>
+    <t>23232</t>
+  </si>
+  <si>
+    <t>005.112.099-24</t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +149,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -239,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,15 +220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,25 +496,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5" hidden="1"/>
+    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,282 +532,60 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="str">
+        <f t="shared" ref="A2:A3" si="0">MID(B2,5,8)</f>
+        <v>106437</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2013</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="str">
-        <f t="shared" ref="A2:A14" si="0">MID(B2,5,8)</f>
-        <v>223930</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>228678</v>
+        <v>228693</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2013</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>229440</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>223735</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>182990</v>
-      </c>
-      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>199710</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>173266</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>718018</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>99236</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>142905</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>120871</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>185000</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>718311</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -863,57 +596,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="str">
-        <f>MID(B1,5,8)</f>
-        <v>98280</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="str">
-        <f>MID(B2,5,8)</f>
-        <v>209988</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8"/>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/portal_blumenau/Parametros_BluBot.xlsx
+++ b/portal_blumenau/Parametros_BluBot.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Matrícula</t>
   </si>
@@ -119,6 +119,21 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>1/1/229816</t>
+  </si>
+  <si>
+    <t>240390</t>
+  </si>
+  <si>
+    <t>229816</t>
+  </si>
+  <si>
+    <t>MARCIA TERESINHA DA SILVA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
 </sst>
 </file>
@@ -496,10 +511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,50 +556,25 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="str">
-        <f t="shared" ref="A2:A3" si="0">MID(B2,5,8)</f>
-        <v>106437</v>
+      <c r="A2" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7">
-        <v>2013</v>
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>228693</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2013</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/portal_blumenau/Parametros_BluBot.xlsx
+++ b/portal_blumenau/Parametros_BluBot.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Matrícula</t>
   </si>
@@ -49,13 +49,7 @@
     <t>Ano final</t>
   </si>
   <si>
-    <t>Caminho para pasta do cliente</t>
-  </si>
-  <si>
     <t>2022</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>GILMAR BARG</t>
@@ -511,10 +505,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,12 +519,11 @@
     <col min="4" max="4" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5" hidden="1"/>
+    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,35 +540,29 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -602,70 +589,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
